--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Programming Coding/C#/ATMAPI/ATMAPI/ATMAPI/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A38E6-5D95-1246-9321-8CBF5700D4E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1DCDA9-E57A-3648-9A8C-FC630B51196D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{76F7E93C-82FC-F54B-B8AB-554D538124C6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,32 +46,36 @@
     <t>Sokunbi</t>
   </si>
   <si>
-    <t>5/17/2024 4:32:59 PM</t>
-  </si>
-  <si>
     <t>Jumoke</t>
   </si>
   <si>
     <t>Aramide</t>
   </si>
   <si>
-    <t>5/17/2024 4:42:47 PM</t>
-  </si>
-  <si>
-    <t>5/17/2024 4:44:13 PM</t>
+    <t>Yemolee</t>
+  </si>
+  <si>
+    <t>Odunlade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +86,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -99,14 +105,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -153,20 +171,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -194,31 +212,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -246,23 +247,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,244 +258,290 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F3C07-BC9A-6A4E-9401-1FF87A12EFB9}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="18.33203125" customWidth="1" style="4"/>
+    <col min="2" max="2" bestFit="1" width="18.6640625" customWidth="1" style="4"/>
+    <col min="3" max="3" bestFit="1" width="24" customWidth="1" style="5"/>
+    <col min="4" max="4" bestFit="1" width="17.83203125" customWidth="1" style="5"/>
+    <col min="5" max="5" bestFit="1" width="22.33203125" customWidth="1" style="5"/>
+    <col min="6" max="6" bestFit="1" width="26.5" customWidth="1" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>9011762253</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>4567</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45432.714594907404</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1884197914</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2345</v>
+      </c>
+      <c r="E3" s="3">
+        <v>14340</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45432.714594907404</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3551811021</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2345</v>
+      </c>
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
+      <c r="F4" s="6">
+        <v>45429.69737268519</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>1884197914</v>
-      </c>
-      <c r="D3">
-        <v>2345</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>3551811021</v>
-      </c>
-      <c r="D4">
-        <v>2345</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="C5" s="5">
+        <v>6415676330</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45432.714594907404</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>FirstName</t>
   </si>
@@ -40,10 +40,7 @@
     <t>OpeningDate</t>
   </si>
   <si>
-    <t>Olutunde</t>
-  </si>
-  <si>
-    <t>Sokunbi</t>
+    <t>Tunde</t>
   </si>
   <si>
     <t>Jumoke</t>
@@ -465,13 +462,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>9011762253</v>
       </c>
       <c r="D2" s="3">
-        <v>4567</v>
+        <v>7890</v>
       </c>
       <c r="E2" s="3">
         <v>6000</v>
@@ -482,10 +479,10 @@
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>1884197914</v>
@@ -502,10 +499,10 @@
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>3551811021</v>
@@ -522,10 +519,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>6415676330</v>

--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -471,7 +471,7 @@
         <v>7890</v>
       </c>
       <c r="E2" s="3">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F2" s="6">
         <v>45432.714594907404</v>
@@ -511,7 +511,7 @@
         <v>2345</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="F4" s="6">
         <v>45429.69737268519</v>

--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Programming Coding/C#/ATMAPI/ATMAPI/ATMAPI/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1DCDA9-E57A-3648-9A8C-FC630B51196D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC12F6D-B20D-0E49-90B6-77BA1B750B83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -40,9 +40,15 @@
     <t>OpeningDate</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>Tunde</t>
   </si>
   <si>
+    <t>User</t>
+  </si>
+  <si>
     <t>Jumoke</t>
   </si>
   <si>
@@ -53,6 +59,18 @@
   </si>
   <si>
     <t>Odunlade</t>
+  </si>
+  <si>
+    <t>Adesope</t>
+  </si>
+  <si>
+    <t>Salako</t>
+  </si>
+  <si>
+    <t>5/23/2024 6:35:54 PM</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -421,10 +439,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,13 +474,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3">
         <v>9011762253</v>
@@ -471,21 +492,24 @@
         <v>7890</v>
       </c>
       <c r="E2" s="3">
-        <v>3000</v>
+        <v>27000</v>
       </c>
       <c r="F2" s="6">
         <v>45432.714594907404</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
-        <v>1884197914</v>
+        <v>1884197911</v>
       </c>
       <c r="D3" s="3">
         <v>2345</v>
@@ -495,14 +519,17 @@
       </c>
       <c r="F3" s="6">
         <v>45432.714594907404</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>3551811021</v>
@@ -511,18 +538,21 @@
         <v>2345</v>
       </c>
       <c r="E4" s="3">
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="F4" s="6">
         <v>45429.69737268519</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>6415676330</v>
@@ -535,6 +565,32 @@
       </c>
       <c r="F5" s="6">
         <v>45432.714594907404</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3251134804</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9090</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>5/24/2024 12:01:57 PM</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -593,6 +602,29 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5884588400</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6666</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Salako</t>
-  </si>
-  <si>
-    <t>5/23/2024 6:35:54 PM</t>
   </si>
   <si>
     <t>Admin</t>
@@ -547,7 +544,7 @@
         <v>2345</v>
       </c>
       <c r="E4" s="3">
-        <v>80000</v>
+        <v>73678</v>
       </c>
       <c r="F4" s="6">
         <v>45429.69737268519</v>
@@ -570,7 +567,7 @@
         <v>1234</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F5" s="6">
         <v>45432.714594907404</v>
@@ -593,21 +590,21 @@
         <v>9090</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>7000</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45435.774930555555</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>5884588400</v>
@@ -619,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Accountdetails.xlsx
+++ b/Database/Accountdetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/Programming Coding/C#/ATMAPI/ATMAPI/ATMAPI/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC12F6D-B20D-0E49-90B6-77BA1B750B83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4EAA2-5BE6-9E4C-84E1-F0515129E5E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -55,6 +56,12 @@
     <t>Aramide</t>
   </si>
   <si>
+    <t>Tolani</t>
+  </si>
+  <si>
+    <t>Oyemekun</t>
+  </si>
+  <si>
     <t>Yemolee</t>
   </si>
   <si>
@@ -70,21 +77,17 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Bond</t>
-  </si>
-  <si>
-    <t>5/24/2024 12:01:57 PM</t>
+    <t>Olu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -126,20 +135,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,20 +466,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="18.33203125" customWidth="1" style="4"/>
-    <col min="2" max="2" bestFit="1" width="18.6640625" customWidth="1" style="4"/>
-    <col min="3" max="3" bestFit="1" width="24" customWidth="1" style="5"/>
-    <col min="4" max="4" bestFit="1" width="17.83203125" customWidth="1" style="5"/>
-    <col min="5" max="5" bestFit="1" width="22.33203125" customWidth="1" style="5"/>
-    <col min="6" max="6" bestFit="1" width="26.5" customWidth="1" style="4"/>
+    <col min="1" max="1" bestFit="1" width="18.33203125" customWidth="1" style="6"/>
+    <col min="2" max="2" bestFit="1" width="18.6640625" customWidth="1" style="6"/>
+    <col min="3" max="3" bestFit="1" width="24" customWidth="1" style="7"/>
+    <col min="4" max="4" bestFit="1" width="17.83203125" customWidth="1" style="7"/>
+    <col min="5" max="5" bestFit="1" width="22.33203125" customWidth="1" style="7"/>
+    <col min="6" max="6" bestFit="1" width="26.5" customWidth="1" style="8"/>
+    <col min="7" max="7" bestFit="1" width="12.5" customWidth="1" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -477,150 +499,153 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>9011762253</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>7890</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>27000</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="12">
         <v>45432.714594907404</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>1884197911</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>2345</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>14340</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="12">
         <v>45432.714594907404</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="17.25" customHeight="1">
+    <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
         <v>3551811021</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2345</v>
       </c>
-      <c r="E4" s="3">
-        <v>73678</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5">
+        <v>72889</v>
+      </c>
+      <c r="F4" s="12">
         <v>45429.69737268519</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
         <v>6415676330</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>1234</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>110</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="12">
         <v>45432.714594907404</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5">
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
         <v>3251134804</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>9090</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>7000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="11">
         <v>45435.774930555555</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>15</v>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>5884588400</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6666</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>9884916109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8889</v>
+      </c>
+      <c r="E7" s="7">
+        <v>789</v>
+      </c>
+      <c r="F7" s="10">
+        <v>45440.90613425926</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
